--- a/Coisas/cronograma.xlsx
+++ b/Coisas/cronograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Desktop\Projeto Arara Azul\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC775C45-396A-49A7-9AD6-F3FE1E50406A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6DACFF-F3FF-4081-B9A6-9D391D6E8364}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6810" xr2:uid="{D01F2A2A-A64B-420C-8612-19C7974D984D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="59">
   <si>
     <t>Júlia Mogi</t>
   </si>
@@ -187,6 +187,21 @@
   </si>
   <si>
     <t>ENTREGA</t>
+  </si>
+  <si>
+    <t>Kauan Silva/Letícia</t>
+  </si>
+  <si>
+    <t>PAGINAS DE CONFIRMAÇÃO</t>
+  </si>
+  <si>
+    <t>BANCO DE DADOS</t>
+  </si>
+  <si>
+    <t>LOGIN</t>
+  </si>
+  <si>
+    <t>RESERVAS</t>
   </si>
 </sst>
 </file>
@@ -470,7 +485,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -538,6 +553,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -553,47 +610,14 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -917,10 +941,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D0752E-222C-4DF3-B2BC-6721072B51D5}">
-  <dimension ref="A1:P51"/>
+  <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -937,39 +961,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="51" t="s">
+      <c r="G1" s="40"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="53"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="41"/>
     </row>
     <row r="2" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="55"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
       <c r="F2" s="6">
         <v>23</v>
       </c>
@@ -994,7 +1018,7 @@
       <c r="M2" s="35"/>
     </row>
     <row r="3" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="48" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="11" t="s">
@@ -1018,7 +1042,7 @@
       <c r="P3" s="32"/>
     </row>
     <row r="4" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="46"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="7" t="s">
         <v>17</v>
       </c>
@@ -1040,7 +1064,7 @@
       <c r="P4" s="18"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5" s="46"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="11" t="s">
         <v>18</v>
       </c>
@@ -1061,7 +1085,7 @@
       <c r="O5" s="17"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" s="46"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="11" t="s">
         <v>19</v>
       </c>
@@ -1082,7 +1106,7 @@
       <c r="O6" s="24"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A7" s="46"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="14" t="s">
         <v>31</v>
       </c>
@@ -1103,7 +1127,7 @@
       <c r="O7" s="24"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A8" s="46"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="44" t="s">
         <v>20</v>
       </c>
@@ -1126,9 +1150,9 @@
       <c r="O8" s="19"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A9" s="46"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="45"/>
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="46" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="5" t="s">
@@ -1150,9 +1174,9 @@
       <c r="P9" s="18"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A10" s="46"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="45"/>
-      <c r="C10" s="57"/>
+      <c r="C10" s="47"/>
       <c r="D10" s="5" t="s">
         <v>24</v>
       </c>
@@ -1172,9 +1196,9 @@
       <c r="P10" s="27"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A11" s="46"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="45"/>
-      <c r="C11" s="57"/>
+      <c r="C11" s="47"/>
       <c r="D11" s="5" t="s">
         <v>25</v>
       </c>
@@ -1192,9 +1216,9 @@
       <c r="O11" s="30"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A12" s="46"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="45"/>
-      <c r="C12" s="57"/>
+      <c r="C12" s="47"/>
       <c r="D12" s="1" t="s">
         <v>26</v>
       </c>
@@ -1211,9 +1235,9 @@
       <c r="N12" s="4"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A13" s="46"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="45"/>
-      <c r="C13" s="57"/>
+      <c r="C13" s="47"/>
       <c r="D13" s="5" t="s">
         <v>27</v>
       </c>
@@ -1229,9 +1253,9 @@
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A14" s="46"/>
+      <c r="A14" s="48"/>
       <c r="B14" s="45"/>
-      <c r="C14" s="57"/>
+      <c r="C14" s="47"/>
       <c r="D14" s="5" t="s">
         <v>28</v>
       </c>
@@ -1247,9 +1271,9 @@
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A15" s="46"/>
+      <c r="A15" s="48"/>
       <c r="B15" s="45"/>
-      <c r="C15" s="57"/>
+      <c r="C15" s="47"/>
       <c r="D15" s="5" t="s">
         <v>29</v>
       </c>
@@ -1265,9 +1289,9 @@
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A16" s="46"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="45"/>
-      <c r="C16" s="57"/>
+      <c r="C16" s="47"/>
       <c r="D16" s="5" t="s">
         <v>30</v>
       </c>
@@ -1283,9 +1307,9 @@
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" s="46"/>
+      <c r="A17" s="48"/>
       <c r="B17" s="45"/>
-      <c r="C17" s="57"/>
+      <c r="C17" s="47"/>
       <c r="D17" s="21" t="s">
         <v>31</v>
       </c>
@@ -1301,10 +1325,10 @@
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="53" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="8" t="s">
@@ -1323,9 +1347,9 @@
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19" s="42"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="40" t="s">
+      <c r="A19" s="56"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="54" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -1343,9 +1367,9 @@
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A20" s="42"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="40"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="54"/>
       <c r="D20" s="1" t="s">
         <v>38</v>
       </c>
@@ -1361,9 +1385,9 @@
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21" s="42"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="40"/>
+      <c r="A21" s="56"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="54"/>
       <c r="D21" s="1" t="s">
         <v>39</v>
       </c>
@@ -1379,9 +1403,9 @@
       <c r="L21" s="2"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A22" s="42"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="40"/>
+      <c r="A22" s="56"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="54"/>
       <c r="D22" s="1" t="s">
         <v>40</v>
       </c>
@@ -1397,9 +1421,9 @@
       <c r="L22" s="9"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A23" s="42"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="40"/>
+      <c r="A23" s="56"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="54"/>
       <c r="D23" s="23" t="s">
         <v>41</v>
       </c>
@@ -1415,9 +1439,9 @@
       <c r="L23" s="2"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A24" s="42"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="40"/>
+      <c r="A24" s="56"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="54"/>
       <c r="D24" s="23" t="s">
         <v>42</v>
       </c>
@@ -1433,9 +1457,9 @@
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A25" s="42"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="40"/>
+      <c r="A25" s="56"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="54"/>
       <c r="D25" s="23" t="s">
         <v>43</v>
       </c>
@@ -1451,9 +1475,9 @@
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A26" s="42"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="40"/>
+      <c r="A26" s="56"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="54"/>
       <c r="D26" s="23" t="s">
         <v>44</v>
       </c>
@@ -1469,9 +1493,9 @@
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A27" s="42"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="40"/>
+      <c r="A27" s="56"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="54"/>
       <c r="D27" s="23" t="s">
         <v>45</v>
       </c>
@@ -1487,9 +1511,9 @@
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A28" s="42"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="40"/>
+      <c r="A28" s="56"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="54"/>
       <c r="D28" s="23" t="s">
         <v>46</v>
       </c>
@@ -1505,9 +1529,9 @@
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A29" s="42"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="40"/>
+      <c r="A29" s="56"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="54"/>
       <c r="D29" s="23" t="s">
         <v>47</v>
       </c>
@@ -1523,7 +1547,7 @@
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A30" s="42"/>
+      <c r="A30" s="56"/>
       <c r="B30" s="22" t="s">
         <v>35</v>
       </c>
@@ -1541,7 +1565,7 @@
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A31" s="43"/>
+      <c r="A31" s="57"/>
       <c r="B31" s="11" t="s">
         <v>36</v>
       </c>
@@ -1559,7 +1583,7 @@
       <c r="L31" s="1"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A32" s="46" t="s">
+      <c r="A32" s="48" t="s">
         <v>7</v>
       </c>
       <c r="B32" s="44" t="s">
@@ -1581,7 +1605,7 @@
       <c r="L32" s="1"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A33" s="46"/>
+      <c r="A33" s="48"/>
       <c r="B33" s="45"/>
       <c r="C33" s="5" t="s">
         <v>38</v>
@@ -1599,7 +1623,7 @@
       <c r="L33" s="1"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A34" s="46"/>
+      <c r="A34" s="48"/>
       <c r="B34" s="45"/>
       <c r="C34" s="5" t="s">
         <v>39</v>
@@ -1617,7 +1641,7 @@
       <c r="L34" s="1"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A35" s="46"/>
+      <c r="A35" s="48"/>
       <c r="B35" s="45"/>
       <c r="C35" s="5" t="s">
         <v>40</v>
@@ -1635,14 +1659,14 @@
       <c r="L35" s="1"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A36" s="46"/>
+      <c r="A36" s="48"/>
       <c r="B36" s="45"/>
       <c r="C36" s="5" t="s">
         <v>41</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="5" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -1653,7 +1677,7 @@
       <c r="L36" s="1"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A37" s="46"/>
+      <c r="A37" s="48"/>
       <c r="B37" s="45"/>
       <c r="C37" s="5" t="s">
         <v>42</v>
@@ -1671,7 +1695,7 @@
       <c r="L37" s="1"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A38" s="46"/>
+      <c r="A38" s="48"/>
       <c r="B38" s="45"/>
       <c r="C38" s="5" t="s">
         <v>43</v>
@@ -1689,7 +1713,7 @@
       <c r="L38" s="1"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A39" s="46"/>
+      <c r="A39" s="48"/>
       <c r="B39" s="45"/>
       <c r="C39" s="5" t="s">
         <v>44</v>
@@ -1707,7 +1731,7 @@
       <c r="L39" s="1"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A40" s="46"/>
+      <c r="A40" s="48"/>
       <c r="B40" s="45"/>
       <c r="C40" s="5" t="s">
         <v>45</v>
@@ -1725,7 +1749,7 @@
       <c r="L40" s="1"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A41" s="46"/>
+      <c r="A41" s="48"/>
       <c r="B41" s="45"/>
       <c r="C41" s="5" t="s">
         <v>46</v>
@@ -1743,81 +1767,83 @@
       <c r="L41" s="1"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A42" s="46"/>
+      <c r="A42" s="48"/>
       <c r="B42" s="45"/>
       <c r="C42" s="5" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="23"/>
-      <c r="I42" s="37"/>
+      <c r="I42" s="38"/>
       <c r="J42" s="37"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A43" s="46"/>
-      <c r="B43" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C43" s="1"/>
+      <c r="A43" s="48"/>
+      <c r="B43" s="58"/>
+      <c r="C43" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="D43" s="1"/>
       <c r="E43" s="5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="37"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="1"/>
       <c r="L43" s="1"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A44" s="46"/>
-      <c r="B44" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C44" s="1"/>
+      <c r="A44" s="48"/>
+      <c r="B44" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="D44" s="1"/>
       <c r="E44" s="5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="37"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="37"/>
+      <c r="K44" s="1"/>
       <c r="L44" s="1"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A45" s="46"/>
-      <c r="B45" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C45" s="1"/>
+      <c r="A45" s="48"/>
+      <c r="B45" s="60"/>
+      <c r="C45" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="D45" s="1"/>
       <c r="E45" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="37"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="37"/>
+      <c r="K45" s="1"/>
       <c r="L45" s="1"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A46" s="46"/>
+      <c r="A46" s="48"/>
       <c r="B46" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1829,14 +1855,74 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="37"/>
-    </row>
-    <row r="51" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G51" s="36"/>
+      <c r="K46" s="37"/>
+      <c r="L46" s="1"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A47" s="48"/>
+      <c r="B47" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="37"/>
+      <c r="L47" s="1"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A48" s="48"/>
+      <c r="B48" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="37"/>
+      <c r="L48" s="1"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A49" s="48"/>
+      <c r="B49" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="37"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="G54" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
+    <mergeCell ref="B18:B29"/>
+    <mergeCell ref="C19:C29"/>
+    <mergeCell ref="A18:A31"/>
+    <mergeCell ref="B32:B43"/>
+    <mergeCell ref="A32:A49"/>
+    <mergeCell ref="B44:B45"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:L1"/>
     <mergeCell ref="A1:A2"/>
@@ -1847,11 +1933,6 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="B18:B29"/>
-    <mergeCell ref="C19:C29"/>
-    <mergeCell ref="A18:A31"/>
-    <mergeCell ref="B32:B42"/>
-    <mergeCell ref="A32:A46"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
